--- a/medicine/Handicap/La_nuit_est_mon_royaume/La_nuit_est_mon_royaume.xlsx
+++ b/medicine/Handicap/La_nuit_est_mon_royaume/La_nuit_est_mon_royaume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nuit est mon royaume est un film français réalisé par Georges Lacombe avec Jean Gabin (deuxième collaboration Lacombe-Gabin, après Martin Roumagnac) et Simone Valère sorti en 1951 et pour lequel Jean Gabin reçut le prix d'interprétation masculine à Venise pour son rôle de Raymond Pinsard. Le film a obtenu également une mention du jury OCIC.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Devenu aveugle à la suite d'un accident, un cheminot, chauffeur de locomotive à vapeur, doit s'adapter à sa nouvelle vie de non-voyant, notamment grâce aux soutiens de sa famille et d'autres non-voyants, dont une femme qui tombe sous son charme.
 Aux commandes de sa locomotive, Raymond Pinsard est brûlé aux yeux par un jet de vapeur qui coûte la vie à son collègue. Malgré la douleur, il parvient seul à arrêter le train, évitant une catastrophe. Son courage est salué par la remise de la Légion d'honneur, mais il a perdu la vue.
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Coupe Volpi pour la meilleure interprétation masculine pour Jean Gabin à la Mostra de Venise 1951</t>
         </is>
@@ -631,9 +651,11 @@
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> France : 2 533 125 entrées[1]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France : 2 533 125 entrées</t>
         </is>
       </c>
     </row>
@@ -661,7 +683,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Deuxième collaboration entre Jean Gabin et Georges Lacombe après Martin Roumagnac cinq ans auparavant. Ils se retrouveront pour la troisième et dernière fois avec Leur dernière nuit (1953).
 Jean Gabin incarne pour la seconde fois un conducteur de locomotive après La Bête humaine (1938).
